--- a/Data/HeroLevelConfig.xlsx
+++ b/Data/HeroLevelConfig.xlsx
@@ -399,7 +399,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -425,7 +425,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>500</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -433,7 +433,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>600</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/Data/HeroLevelConfig.xlsx
+++ b/Data/HeroLevelConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>HP</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>HeroLevel</t>
+  </si>
+  <si>
+    <t>!Hệ số cộng</t>
+  </si>
+  <si>
+    <t>!HP cộng</t>
   </si>
 </sst>
 </file>
@@ -43,15 +49,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,12 +71,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,44 +425,463 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>700</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <f>C3 * 100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
+        <f>A3 + 1</f>
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
+        <f>B3 + D4</f>
         <v>800</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D27" si="0">C4 * 100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
+        <f t="shared" ref="A5:A26" si="1">A4 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" ref="B5:B27" si="2">B4 + D5</f>
+        <v>900</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="2"/>
+        <v>1100</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="2"/>
+        <v>1300</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="2"/>
+        <v>1700</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="2"/>
+        <v>1900</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="2"/>
+        <v>2100</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="2"/>
+        <v>2400</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="2"/>
+        <v>2700</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="2"/>
+        <v>3300</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="2"/>
+        <v>3600</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="2"/>
+        <v>4400</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="2"/>
+        <v>4800</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="2"/>
+        <v>5200</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="2"/>
+        <v>5600</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" si="2"/>
+        <v>6100</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" si="2"/>
+        <v>6600</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" si="2"/>
+        <v>7100</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <f t="shared" si="2"/>
+        <v>7600</v>
+      </c>
+      <c r="C26" s="2">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2">
+        <f>A26 + 1</f>
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" si="2"/>
+        <v>8100</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/Data/HeroLevelConfig.xlsx
+++ b/Data/HeroLevelConfig.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>HP</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>!HP cộng</t>
+  </si>
+  <si>
+    <t>GoldUprade</t>
   </si>
 </sst>
 </file>
@@ -63,7 +66,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -86,14 +89,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,15 +440,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -446,8 +461,11 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -460,8 +478,11 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -475,8 +496,11 @@
         <f>C3 * 100</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <f>A3 + 1</f>
         <v>2</v>
@@ -492,8 +516,12 @@
         <f t="shared" ref="D4:D27" si="0">C4 * 100</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2">
+        <f>E3 +200</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <f t="shared" ref="A5:A26" si="1">A4 + 1</f>
         <v>3</v>
@@ -509,8 +537,12 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2">
+        <f t="shared" ref="E5:E26" si="3">E4 +200</f>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -526,8 +558,12 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2">
+        <f t="shared" si="3"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -543,8 +579,12 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2">
+        <f t="shared" si="3"/>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -560,8 +600,12 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -577,8 +621,12 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="2">
+        <f t="shared" si="3"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -594,8 +642,12 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="2">
+        <f t="shared" si="3"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -611,8 +663,12 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="2">
+        <f t="shared" si="3"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -628,8 +684,12 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="2">
+        <f t="shared" si="3"/>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -645,8 +705,12 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="2">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -662,8 +726,12 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="2">
+        <f t="shared" si="3"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -679,8 +747,12 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="2">
+        <f t="shared" si="3"/>
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -696,8 +768,12 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="2">
+        <f t="shared" si="3"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -713,8 +789,12 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="2">
+        <f t="shared" si="3"/>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -730,8 +810,12 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="2">
+        <f t="shared" si="3"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -747,8 +831,12 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="2">
+        <f t="shared" si="3"/>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -764,8 +852,12 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="2">
+        <f t="shared" si="3"/>
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -781,8 +873,12 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="2">
+        <f t="shared" si="3"/>
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -798,8 +894,12 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="2">
+        <f t="shared" si="3"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -815,8 +915,12 @@
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="2">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -832,8 +936,12 @@
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="2">
+        <f t="shared" si="3"/>
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -849,8 +957,12 @@
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -866,8 +978,12 @@
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="2">
+        <f t="shared" si="3"/>
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <f>A26 + 1</f>
         <v>25</v>
@@ -882,6 +998,10 @@
       <c r="D27" s="2">
         <f t="shared" si="0"/>
         <v>500</v>
+      </c>
+      <c r="E27" s="2">
+        <f>E26 +200</f>
+        <v>5800</v>
       </c>
     </row>
   </sheetData>

--- a/Data/HeroLevelConfig.xlsx
+++ b/Data/HeroLevelConfig.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>HP</t>
   </si>
@@ -38,6 +39,18 @@
   <si>
     <t>GoldUprade</t>
   </si>
+  <si>
+    <t>!BlockGold</t>
+  </si>
+  <si>
+    <t>Gold Uprade</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
 </sst>
 </file>
 
@@ -52,7 +65,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -62,6 +75,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -104,11 +129,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,15 +473,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -464,8 +497,11 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -481,8 +517,11 @@
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -499,8 +538,11 @@
       <c r="E3" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <f>A3 + 1</f>
         <v>2</v>
@@ -517,11 +559,14 @@
         <v>100</v>
       </c>
       <c r="E4" s="2">
-        <f>E3 +200</f>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <f>E3 +VLOOKUP(F4, Sheet2!A$3:B$7,2)</f>
+        <v>2500</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <f t="shared" ref="A5:A26" si="1">A4 + 1</f>
         <v>3</v>
@@ -538,11 +583,14 @@
         <v>100</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ref="E5:E26" si="3">E4 +200</f>
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <f>E4 +VLOOKUP(F5, Sheet2!A$3:B$7,2)</f>
+        <v>4000</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -559,32 +607,38 @@
         <v>100</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="3"/>
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
+        <f>E5 +VLOOKUP(F6, Sheet2!A$3:B$7,2)</f>
+        <v>5500</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="9" customFormat="1">
+      <c r="A7" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="6">
         <f t="shared" si="2"/>
         <v>1100</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E7" s="2">
-        <f t="shared" si="3"/>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="6">
+        <f>E6 +VLOOKUP(F7, Sheet2!A$3:B$7,2)</f>
+        <v>7000</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -601,11 +655,14 @@
         <v>200</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="3"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <f>E7 +VLOOKUP(F8, Sheet2!A$3:B$7,2)</f>
+        <v>11000</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -622,11 +679,14 @@
         <v>200</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="3"/>
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <f>E8 +VLOOKUP(F9, Sheet2!A$3:B$7,2)</f>
+        <v>15000</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -643,11 +703,14 @@
         <v>200</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="3"/>
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <f>E9 +VLOOKUP(F10, Sheet2!A$3:B$7,2)</f>
+        <v>19000</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -664,32 +727,38 @@
         <v>200</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="3"/>
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2">
+        <f>E10 +VLOOKUP(F11, Sheet2!A$3:B$7,2)</f>
+        <v>23000</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="9" customFormat="1">
+      <c r="A12" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="6">
         <f t="shared" si="2"/>
         <v>2100</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="6">
         <v>2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="6">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="E12" s="2">
-        <f t="shared" si="3"/>
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="6">
+        <f>E11 +VLOOKUP(F12, Sheet2!A$3:B$7,2)</f>
+        <v>27000</v>
+      </c>
+      <c r="F12" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -706,11 +775,14 @@
         <v>300</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="3"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <f>E12 +VLOOKUP(F13, Sheet2!A$3:B$7,2)</f>
+        <v>34500</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -727,11 +799,14 @@
         <v>300</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="3"/>
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <f>E13 +VLOOKUP(F14, Sheet2!A$3:B$7,2)</f>
+        <v>42000</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -748,11 +823,14 @@
         <v>300</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="3"/>
-        <v>3400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <f>E14 +VLOOKUP(F15, Sheet2!A$3:B$7,2)</f>
+        <v>49500</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -769,32 +847,38 @@
         <v>300</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="3"/>
+        <f>E15 +VLOOKUP(F16, Sheet2!A$3:B$7,2)</f>
+        <v>57000</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="9" customFormat="1">
+      <c r="A17" s="6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="6">
+        <f t="shared" si="2"/>
         <v>3600</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
-        <f t="shared" si="2"/>
-        <v>3600</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="C17" s="6">
         <v>3</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="6">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="E17" s="2">
-        <f t="shared" si="3"/>
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17" s="6">
+        <f>E16 +VLOOKUP(F17, Sheet2!A$3:B$7,2)</f>
+        <v>64500</v>
+      </c>
+      <c r="F17" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -811,11 +895,14 @@
         <v>400</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="3"/>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <f>E17 +VLOOKUP(F18, Sheet2!A$3:B$7,2)</f>
+        <v>77000</v>
+      </c>
+      <c r="F18" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -832,11 +919,14 @@
         <v>400</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="3"/>
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <f>E18 +VLOOKUP(F19, Sheet2!A$3:B$7,2)</f>
+        <v>89500</v>
+      </c>
+      <c r="F19" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -853,11 +943,14 @@
         <v>400</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="3"/>
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <f>E19 +VLOOKUP(F20, Sheet2!A$3:B$7,2)</f>
+        <v>102000</v>
+      </c>
+      <c r="F20" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -874,32 +967,38 @@
         <v>400</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="3"/>
-        <v>4600</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2">
+        <f>E20 +VLOOKUP(F21, Sheet2!A$3:B$7,2)</f>
+        <v>114500</v>
+      </c>
+      <c r="F21" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="9" customFormat="1">
+      <c r="A22" s="6">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="6">
         <f t="shared" si="2"/>
         <v>5600</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="6">
         <v>4</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="6">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="E22" s="2">
-        <f t="shared" si="3"/>
-        <v>4800</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="E22" s="6">
+        <f>E21 +VLOOKUP(F22, Sheet2!A$3:B$7,2)</f>
+        <v>127000</v>
+      </c>
+      <c r="F22" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -916,11 +1015,14 @@
         <v>500</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="3"/>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <f>E22 +VLOOKUP(F23, Sheet2!A$3:B$7,2)</f>
+        <v>147000</v>
+      </c>
+      <c r="F23" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -937,11 +1039,14 @@
         <v>500</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="3"/>
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <f>E23 +VLOOKUP(F24, Sheet2!A$3:B$7,2)</f>
+        <v>167000</v>
+      </c>
+      <c r="F24" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -958,11 +1063,14 @@
         <v>500</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="3"/>
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <f>E24 +VLOOKUP(F25, Sheet2!A$3:B$7,2)</f>
+        <v>187000</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -979,29 +1087,35 @@
         <v>500</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="3"/>
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2">
+        <f>E25 +VLOOKUP(F26, Sheet2!A$3:B$7,2)</f>
+        <v>207000</v>
+      </c>
+      <c r="F26" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="9" customFormat="1">
+      <c r="A27" s="6">
         <f>A26 + 1</f>
         <v>25</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="6">
         <f t="shared" si="2"/>
         <v>8100</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="6">
         <v>5</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="6">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="E27" s="2">
-        <f>E26 +200</f>
-        <v>5800</v>
+      <c r="E27" s="6">
+        <f>E26 +VLOOKUP(F27, Sheet2!A$3:B$7,2)</f>
+        <v>227000</v>
+      </c>
+      <c r="F27" s="6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1012,4 +1126,81 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>